--- a/DMS phase 1a/1a staging table/CP_POL_DASHBOARD.xlsx
+++ b/DMS phase 1a/1a staging table/CP_POL_DASHBOARD.xlsx
@@ -284,12 +284,6 @@
     <t>Null for GI</t>
   </si>
   <si>
-    <t>Per Policy Fields indicated, Due date refers to 'Policy expiry date' for GI, but we already pass policy expiry within staging table CP_POLICY_DTLS. Then what is this field used for?</t>
-  </si>
-  <si>
-    <t>DNs records No with failed Giro transactions with settlement status is still outstanding</t>
-  </si>
-  <si>
     <t>Dashboard type. 1-Policies Maturing (Individual Income system need to appply its own logic),  
 2-Premium Due, 
 3-Policy Premium Outstanding,
@@ -297,33 +291,40 @@
 5-Renewal Due</t>
   </si>
   <si>
+    <t>Customer NRIC</t>
+  </si>
+  <si>
+    <t>Policy/ Quotation number</t>
+  </si>
+  <si>
+    <t>Referring to the outstanding DN No.s which is overdue. Means if the dashboard type is 2, this field should be show as blank. 
+Only restricted to direct business</t>
+  </si>
+  <si>
+    <t>Referring to total outstanding AR balance which is overdue. Means if the dashboard type is 2, this field should be show as blank.
+Only restricted to direct business</t>
+  </si>
+  <si>
+    <t>If there are multiple overdue outstanding DNs, due date should be the earliest due date.</t>
+  </si>
+  <si>
     <t>Note: 
+1. Policy Maturing is not applicable for GI.
 2. Premium Due means:
 - Paymode of DN level is cash;
 - The amount should be retrieved as next due AR balance;
-3. Policy Premium Outstanding means  Policy has outstanding premium which is only restricted with direct business.
+3. Policy Premium Outstanding means  Policy has outstanding premium and overdue, which is only restricted with direct business.
 4. Failed GIRO Transactions means the policy has any DN record with failed GIRO deduction and settlement status is still outstanding.
 5. Renewal Due means:
 - Renewal quotation is generated and not rejected;
 - Premium prepaid amount is less than quotation APP(Unpaid or partially paid)
-1. How to tell the dashboard type, if a policy fullfill mutiple type, how to display?
-2. Is this a mandatory field or optional?
-3. Policy Maturing is not applicable for GI.</t>
-  </si>
-  <si>
-    <t>What's the meaning of No. of premiums, is this refering to outstanding DNs No. which is restricted with direct business?</t>
-  </si>
-  <si>
-    <t>Customer NRIC</t>
-  </si>
-  <si>
-    <t>Is this total premium outstanding per policy level or just policy APP?</t>
-  </si>
-  <si>
-    <t>Policy/ Quotation number</t>
-  </si>
-  <si>
-    <t>What is the definition for this field, is there any sample? How to display if it's a new business policy or quotation?</t>
+If the policy falls multiple dashboards type at the same time, it should show as several lines in the staging table.</t>
+  </si>
+  <si>
+    <t>Default to be display as '1'</t>
+  </si>
+  <si>
+    <t>DNs records count with failed Giro transactions with settlement status is still outstanding</t>
   </si>
 </sst>
 </file>
@@ -802,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +878,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -885,7 +886,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A23" si="0">A3+1</f>
         <v>3</v>
@@ -900,7 +901,7 @@
         <v>61</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
@@ -965,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1027,10 +1028,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1161,7 +1162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1176,7 +1177,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
@@ -1184,7 +1185,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1198,8 +1199,8 @@
       <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>91</v>
+      <c r="E17" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>37</v>
@@ -1224,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>37</v>
@@ -1259,7 +1260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1274,7 +1275,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>37</v>
@@ -1282,7 +1283,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
